--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="master-reg_center_machine_devic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="11">
   <si>
     <t>regcntr_id</t>
   </si>
   <si>
+    <t>machine_id</t>
+  </si>
+  <si>
     <t>device_id</t>
+  </si>
+  <si>
+    <t>lang_code</t>
   </si>
   <si>
     <t>is_active</t>
@@ -36,7 +42,10 @@
     <t>cr_dtimes</t>
   </si>
   <si>
-    <t>machine_id</t>
+    <t>eff_dtimes</t>
+  </si>
+  <si>
+    <t>eng</t>
   </si>
   <si>
     <t>superadmin()</t>
@@ -44,15 +53,12 @@
   <si>
     <t>now()</t>
   </si>
-  <si>
-    <t>eff_dtimes</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +66,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -77,18 +383,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -120,7 +612,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +624,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -179,6 +671,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -214,6 +723,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,43 +892,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H92" sqref="H1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -412,23 +934,25 @@
       <c r="C2">
         <v>3000021</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f>A2+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B3">
         <v>10002</v>
@@ -436,23 +960,25 @@
       <c r="C3">
         <v>3000022</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="0">A3+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B4">
         <v>10003</v>
@@ -460,23 +986,25 @@
       <c r="C4">
         <v>3000023</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="0"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B5">
         <v>10004</v>
@@ -484,23 +1012,25 @@
       <c r="C5">
         <v>3000024</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B6">
         <v>10005</v>
@@ -508,23 +1038,25 @@
       <c r="C6">
         <v>3000025</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B7">
         <v>10006</v>
@@ -532,23 +1064,25 @@
       <c r="C7">
         <v>3000026</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B8">
         <v>10007</v>
@@ -556,23 +1090,25 @@
       <c r="C8">
         <v>3000027</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B9">
         <v>10008</v>
@@ -580,23 +1116,25 @@
       <c r="C9">
         <v>3000028</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B10">
         <v>10009</v>
@@ -604,23 +1142,25 @@
       <c r="C10">
         <v>3000029</v>
       </c>
-      <c r="D10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B11">
         <v>10010</v>
@@ -628,22 +1168,25 @@
       <c r="C11">
         <v>3000030</v>
       </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B12">
         <v>10011</v>
@@ -651,22 +1194,25 @@
       <c r="C12">
         <v>3000031</v>
       </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B13">
         <v>10012</v>
@@ -674,22 +1220,25 @@
       <c r="C13">
         <v>3000032</v>
       </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B14">
         <v>10013</v>
@@ -697,22 +1246,25 @@
       <c r="C14">
         <v>3000033</v>
       </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B15">
         <v>10014</v>
@@ -720,22 +1272,25 @@
       <c r="C15">
         <v>3000034</v>
       </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B16">
         <v>10015</v>
@@ -743,22 +1298,25 @@
       <c r="C16">
         <v>3000035</v>
       </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B17">
         <v>10016</v>
@@ -766,22 +1324,25 @@
       <c r="C17">
         <v>3000036</v>
       </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B18">
         <v>10017</v>
@@ -789,22 +1350,25 @@
       <c r="C18">
         <v>3000037</v>
       </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B19">
         <v>10018</v>
@@ -812,22 +1376,25 @@
       <c r="C19">
         <v>3000038</v>
       </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B20">
         <v>10019</v>
@@ -835,22 +1402,25 @@
       <c r="C20">
         <v>3000039</v>
       </c>
-      <c r="D20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B21">
         <v>10020</v>
@@ -858,20 +1428,23 @@
       <c r="C21">
         <v>3000040</v>
       </c>
-      <c r="D21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10001</v>
       </c>
@@ -881,23 +1454,25 @@
       <c r="C22">
         <v>3000041</v>
       </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f>A22+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B23">
         <v>10002</v>
@@ -905,23 +1480,25 @@
       <c r="C23">
         <v>3000042</v>
       </c>
-      <c r="D23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" ref="A24:A31" si="1">A23+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B24">
         <v>10003</v>
@@ -929,23 +1506,25 @@
       <c r="C24">
         <v>3000043</v>
       </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="1"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B25">
         <v>10004</v>
@@ -953,23 +1532,25 @@
       <c r="C25">
         <v>3000044</v>
       </c>
-      <c r="D25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="1"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B26">
         <v>10005</v>
@@ -977,23 +1558,25 @@
       <c r="C26">
         <v>3000045</v>
       </c>
-      <c r="D26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="1"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B27">
         <v>10006</v>
@@ -1001,23 +1584,25 @@
       <c r="C27">
         <v>3000046</v>
       </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="1"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B28">
         <v>10007</v>
@@ -1025,23 +1610,25 @@
       <c r="C28">
         <v>3000047</v>
       </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="1"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B29">
         <v>10008</v>
@@ -1049,23 +1636,25 @@
       <c r="C29">
         <v>3000048</v>
       </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="1"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B30">
         <v>10009</v>
@@ -1073,23 +1662,25 @@
       <c r="C30">
         <v>3000049</v>
       </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="1"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B31">
         <v>10010</v>
@@ -1097,22 +1688,25 @@
       <c r="C31">
         <v>3000050</v>
       </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B32">
         <v>10011</v>
@@ -1120,22 +1714,25 @@
       <c r="C32">
         <v>3000051</v>
       </c>
-      <c r="D32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B33">
         <v>10012</v>
@@ -1143,22 +1740,25 @@
       <c r="C33">
         <v>3000052</v>
       </c>
-      <c r="D33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B34">
         <v>10013</v>
@@ -1166,22 +1766,25 @@
       <c r="C34">
         <v>3000053</v>
       </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B35">
         <v>10014</v>
@@ -1189,22 +1792,25 @@
       <c r="C35">
         <v>3000054</v>
       </c>
-      <c r="D35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B36">
         <v>10015</v>
@@ -1212,22 +1818,25 @@
       <c r="C36">
         <v>3000055</v>
       </c>
-      <c r="D36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B37">
         <v>10016</v>
@@ -1235,22 +1844,25 @@
       <c r="C37">
         <v>3000056</v>
       </c>
-      <c r="D37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B38">
         <v>10017</v>
@@ -1258,22 +1870,25 @@
       <c r="C38">
         <v>3000057</v>
       </c>
-      <c r="D38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B39">
         <v>10018</v>
@@ -1281,22 +1896,25 @@
       <c r="C39">
         <v>3000058</v>
       </c>
-      <c r="D39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B40">
         <v>10019</v>
@@ -1304,22 +1922,25 @@
       <c r="C40">
         <v>3000059</v>
       </c>
-      <c r="D40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B41">
         <v>10020</v>
@@ -1327,20 +1948,23 @@
       <c r="C41">
         <v>3000060</v>
       </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10001</v>
       </c>
@@ -1350,23 +1974,25 @@
       <c r="C42">
         <v>3000061</v>
       </c>
-      <c r="D42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f>A42+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B43">
         <v>10002</v>
@@ -1374,23 +2000,25 @@
       <c r="C43">
         <v>3000062</v>
       </c>
-      <c r="D43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" ref="A44:A51" si="2">A43+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B44">
         <v>10003</v>
@@ -1398,23 +2026,25 @@
       <c r="C44">
         <v>3000063</v>
       </c>
-      <c r="D44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="2"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B45">
         <v>10004</v>
@@ -1422,23 +2052,25 @@
       <c r="C45">
         <v>3000064</v>
       </c>
-      <c r="D45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f t="shared" si="2"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B46">
         <v>10005</v>
@@ -1446,23 +2078,25 @@
       <c r="C46">
         <v>3000065</v>
       </c>
-      <c r="D46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="2"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B47">
         <v>10006</v>
@@ -1470,23 +2104,25 @@
       <c r="C47">
         <v>3000066</v>
       </c>
-      <c r="D47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="2"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B48">
         <v>10007</v>
@@ -1494,23 +2130,25 @@
       <c r="C48">
         <v>3000067</v>
       </c>
-      <c r="D48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="2"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B49">
         <v>10008</v>
@@ -1518,23 +2156,25 @@
       <c r="C49">
         <v>3000068</v>
       </c>
-      <c r="D49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="2"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B50">
         <v>10009</v>
@@ -1542,23 +2182,25 @@
       <c r="C50">
         <v>3000069</v>
       </c>
-      <c r="D50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="2"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B51">
         <v>10010</v>
@@ -1566,22 +2208,25 @@
       <c r="C51">
         <v>3000070</v>
       </c>
-      <c r="D51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B52">
         <v>10011</v>
@@ -1589,22 +2234,25 @@
       <c r="C52">
         <v>3000071</v>
       </c>
-      <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B53">
         <v>10012</v>
@@ -1612,22 +2260,25 @@
       <c r="C53">
         <v>3000072</v>
       </c>
-      <c r="D53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B54">
         <v>10013</v>
@@ -1635,22 +2286,25 @@
       <c r="C54">
         <v>3000073</v>
       </c>
-      <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B55">
         <v>10014</v>
@@ -1658,22 +2312,25 @@
       <c r="C55">
         <v>3000074</v>
       </c>
-      <c r="D55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B56">
         <v>10015</v>
@@ -1681,22 +2338,25 @@
       <c r="C56">
         <v>3000075</v>
       </c>
-      <c r="D56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B57">
         <v>10016</v>
@@ -1704,22 +2364,25 @@
       <c r="C57">
         <v>3000076</v>
       </c>
-      <c r="D57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B58">
         <v>10017</v>
@@ -1727,22 +2390,25 @@
       <c r="C58">
         <v>3000077</v>
       </c>
-      <c r="D58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B59">
         <v>10018</v>
@@ -1750,22 +2416,25 @@
       <c r="C59">
         <v>3000078</v>
       </c>
-      <c r="D59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B60">
         <v>10019</v>
@@ -1773,22 +2442,25 @@
       <c r="C60">
         <v>3000079</v>
       </c>
-      <c r="D60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B61">
         <v>10020</v>
@@ -1796,20 +2468,23 @@
       <c r="C61">
         <v>3000080</v>
       </c>
-      <c r="D61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>10001</v>
       </c>
@@ -1819,23 +2494,25 @@
       <c r="C62">
         <v>3000081</v>
       </c>
-      <c r="D62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f>A62+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B63">
         <v>10002</v>
@@ -1843,23 +2520,25 @@
       <c r="C63">
         <v>3000082</v>
       </c>
-      <c r="D63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
-        <f t="shared" ref="A64:A71" si="3">A63+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B64">
         <v>10003</v>
@@ -1867,23 +2546,25 @@
       <c r="C64">
         <v>3000083</v>
       </c>
-      <c r="D64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
-        <f t="shared" si="3"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B65">
         <v>10004</v>
@@ -1891,23 +2572,25 @@
       <c r="C65">
         <v>3000084</v>
       </c>
-      <c r="D65" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
-        <f t="shared" si="3"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B66">
         <v>10005</v>
@@ -1915,23 +2598,25 @@
       <c r="C66">
         <v>3000085</v>
       </c>
-      <c r="D66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f t="shared" si="3"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B67">
         <v>10006</v>
@@ -1939,23 +2624,25 @@
       <c r="C67">
         <v>3000086</v>
       </c>
-      <c r="D67" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
-        <f t="shared" si="3"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B68">
         <v>10007</v>
@@ -1963,23 +2650,25 @@
       <c r="C68">
         <v>3000087</v>
       </c>
-      <c r="D68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
-        <f t="shared" si="3"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B69">
         <v>10008</v>
@@ -1987,23 +2676,25 @@
       <c r="C69">
         <v>3000088</v>
       </c>
-      <c r="D69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
-        <f t="shared" si="3"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B70">
         <v>10009</v>
@@ -2011,23 +2702,25 @@
       <c r="C70">
         <v>3000089</v>
       </c>
-      <c r="D70" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
-        <f t="shared" si="3"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B71">
         <v>10010</v>
@@ -2035,22 +2728,25 @@
       <c r="C71">
         <v>3000090</v>
       </c>
-      <c r="D71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B72">
         <v>10011</v>
@@ -2058,22 +2754,25 @@
       <c r="C72">
         <v>3000091</v>
       </c>
-      <c r="D72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B73">
         <v>10012</v>
@@ -2081,22 +2780,25 @@
       <c r="C73">
         <v>3000092</v>
       </c>
-      <c r="D73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B74">
         <v>10013</v>
@@ -2104,22 +2806,25 @@
       <c r="C74">
         <v>3000093</v>
       </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B75">
         <v>10014</v>
@@ -2127,22 +2832,25 @@
       <c r="C75">
         <v>3000094</v>
       </c>
-      <c r="D75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>6</v>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B76">
         <v>10015</v>
@@ -2150,22 +2858,25 @@
       <c r="C76">
         <v>3000095</v>
       </c>
-      <c r="D76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B77">
         <v>10016</v>
@@ -2173,22 +2884,25 @@
       <c r="C77">
         <v>3000096</v>
       </c>
-      <c r="D77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B78">
         <v>10017</v>
@@ -2196,22 +2910,25 @@
       <c r="C78">
         <v>3000097</v>
       </c>
-      <c r="D78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B79">
         <v>10018</v>
@@ -2219,22 +2936,25 @@
       <c r="C79">
         <v>3000098</v>
       </c>
-      <c r="D79" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B80">
         <v>10019</v>
@@ -2242,22 +2962,25 @@
       <c r="C80">
         <v>3000099</v>
       </c>
-      <c r="D80" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B81">
         <v>10020</v>
@@ -2265,20 +2988,23 @@
       <c r="C81">
         <v>3000100</v>
       </c>
-      <c r="D81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>10001</v>
       </c>
@@ -2288,23 +3014,25 @@
       <c r="C82">
         <v>3000101</v>
       </c>
-      <c r="D82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <f>A82+3</f>
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B83">
         <v>10002</v>
@@ -2312,23 +3040,25 @@
       <c r="C83">
         <v>3000102</v>
       </c>
-      <c r="D83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <f t="shared" ref="A84:A91" si="4">A83+3</f>
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="B84">
         <v>10003</v>
@@ -2336,23 +3066,25 @@
       <c r="C84">
         <v>3000103</v>
       </c>
-      <c r="D84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
-        <f t="shared" si="4"/>
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="B85">
         <v>10004</v>
@@ -2360,23 +3092,25 @@
       <c r="C85">
         <v>3000104</v>
       </c>
-      <c r="D85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>6</v>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
-        <f t="shared" si="4"/>
-        <v>10013</v>
+        <v>10005</v>
       </c>
       <c r="B86">
         <v>10005</v>
@@ -2384,23 +3118,25 @@
       <c r="C86">
         <v>3000105</v>
       </c>
-      <c r="D86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
-        <f t="shared" si="4"/>
-        <v>10016</v>
+        <v>10006</v>
       </c>
       <c r="B87">
         <v>10006</v>
@@ -2408,23 +3144,25 @@
       <c r="C87">
         <v>3000106</v>
       </c>
-      <c r="D87" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>6</v>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
-        <f t="shared" si="4"/>
-        <v>10019</v>
+        <v>10007</v>
       </c>
       <c r="B88">
         <v>10007</v>
@@ -2432,23 +3170,25 @@
       <c r="C88">
         <v>3000107</v>
       </c>
-      <c r="D88" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
-        <f t="shared" si="4"/>
-        <v>10022</v>
+        <v>10008</v>
       </c>
       <c r="B89">
         <v>10008</v>
@@ -2456,23 +3196,25 @@
       <c r="C89">
         <v>3000108</v>
       </c>
-      <c r="D89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" t="s">
-        <v>6</v>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
-        <f t="shared" si="4"/>
-        <v>10025</v>
+        <v>10009</v>
       </c>
       <c r="B90">
         <v>10009</v>
@@ -2480,23 +3222,25 @@
       <c r="C90">
         <v>3000109</v>
       </c>
-      <c r="D90" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
-        <f t="shared" si="4"/>
-        <v>10028</v>
+        <v>10010</v>
       </c>
       <c r="B91">
         <v>10010</v>
@@ -2504,22 +3248,25 @@
       <c r="C91">
         <v>3000110</v>
       </c>
-      <c r="D91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B92">
         <v>10011</v>
@@ -2527,22 +3274,25 @@
       <c r="C92">
         <v>3000111</v>
       </c>
-      <c r="D92" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>10031</v>
+        <v>10011</v>
       </c>
       <c r="B93">
         <v>10012</v>
@@ -2550,22 +3300,25 @@
       <c r="C93">
         <v>3000112</v>
       </c>
-      <c r="D93" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B94">
         <v>10013</v>
@@ -2573,22 +3326,25 @@
       <c r="C94">
         <v>3000113</v>
       </c>
-      <c r="D94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" t="s">
-        <v>6</v>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>10034</v>
+        <v>10012</v>
       </c>
       <c r="B95">
         <v>10014</v>
@@ -2596,22 +3352,25 @@
       <c r="C95">
         <v>3000114</v>
       </c>
-      <c r="D95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B96">
         <v>10015</v>
@@ -2619,22 +3378,25 @@
       <c r="C96">
         <v>3000115</v>
       </c>
-      <c r="D96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>10037</v>
+        <v>10013</v>
       </c>
       <c r="B97">
         <v>10016</v>
@@ -2642,22 +3404,25 @@
       <c r="C97">
         <v>3000116</v>
       </c>
-      <c r="D97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B98">
         <v>10017</v>
@@ -2665,22 +3430,25 @@
       <c r="C98">
         <v>3000117</v>
       </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>10040</v>
+        <v>10014</v>
       </c>
       <c r="B99">
         <v>10018</v>
@@ -2688,22 +3456,25 @@
       <c r="C99">
         <v>3000118</v>
       </c>
-      <c r="D99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B100">
         <v>10019</v>
@@ -2711,22 +3482,25 @@
       <c r="C100">
         <v>3000119</v>
       </c>
-      <c r="D100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>10043</v>
+        <v>10015</v>
       </c>
       <c r="B101">
         <v>10020</v>
@@ -2734,21 +3508,23 @@
       <c r="C101">
         <v>3000120</v>
       </c>
-      <c r="D101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>6</v>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E31AD93-0728-4B57-AD7C-12DB1973815C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_machine_devic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="11">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,10 +892,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3524,7 +3527,1178 @@
         <v>10</v>
       </c>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10002</v>
+      </c>
+      <c r="B102">
+        <v>10021</v>
+      </c>
+      <c r="C102">
+        <v>3000121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10003</v>
+      </c>
+      <c r="B103">
+        <v>10022</v>
+      </c>
+      <c r="C103">
+        <v>3000122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10004</v>
+      </c>
+      <c r="B104">
+        <v>10023</v>
+      </c>
+      <c r="C104">
+        <v>3000123</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10005</v>
+      </c>
+      <c r="B105">
+        <v>10024</v>
+      </c>
+      <c r="C105">
+        <v>3000124</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10006</v>
+      </c>
+      <c r="B106">
+        <v>10025</v>
+      </c>
+      <c r="C106">
+        <v>3000125</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10007</v>
+      </c>
+      <c r="B107">
+        <v>10026</v>
+      </c>
+      <c r="C107">
+        <v>3000126</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10008</v>
+      </c>
+      <c r="B108">
+        <v>10027</v>
+      </c>
+      <c r="C108">
+        <v>3000127</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10009</v>
+      </c>
+      <c r="B109">
+        <v>10028</v>
+      </c>
+      <c r="C109">
+        <v>3000128</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10010</v>
+      </c>
+      <c r="B110">
+        <v>10029</v>
+      </c>
+      <c r="C110">
+        <v>3000129</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10002</v>
+      </c>
+      <c r="B111">
+        <v>10021</v>
+      </c>
+      <c r="C111">
+        <v>3000130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>10003</v>
+      </c>
+      <c r="B112">
+        <v>10022</v>
+      </c>
+      <c r="C112">
+        <v>3000131</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>10004</v>
+      </c>
+      <c r="B113">
+        <v>10023</v>
+      </c>
+      <c r="C113">
+        <v>3000132</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>10005</v>
+      </c>
+      <c r="B114">
+        <v>10024</v>
+      </c>
+      <c r="C114">
+        <v>3000133</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>10006</v>
+      </c>
+      <c r="B115">
+        <v>10025</v>
+      </c>
+      <c r="C115">
+        <v>3000134</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>10007</v>
+      </c>
+      <c r="B116">
+        <v>10026</v>
+      </c>
+      <c r="C116">
+        <v>3000135</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>10008</v>
+      </c>
+      <c r="B117">
+        <v>10027</v>
+      </c>
+      <c r="C117">
+        <v>3000136</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>10009</v>
+      </c>
+      <c r="B118">
+        <v>10028</v>
+      </c>
+      <c r="C118">
+        <v>3000137</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>10010</v>
+      </c>
+      <c r="B119">
+        <v>10029</v>
+      </c>
+      <c r="C119">
+        <v>3000138</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>10002</v>
+      </c>
+      <c r="B120">
+        <v>10021</v>
+      </c>
+      <c r="C120">
+        <v>3000139</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>10003</v>
+      </c>
+      <c r="B121">
+        <v>10022</v>
+      </c>
+      <c r="C121">
+        <v>3000140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>10004</v>
+      </c>
+      <c r="B122">
+        <v>10023</v>
+      </c>
+      <c r="C122">
+        <v>3000141</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>10005</v>
+      </c>
+      <c r="B123">
+        <v>10024</v>
+      </c>
+      <c r="C123">
+        <v>3000142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>10006</v>
+      </c>
+      <c r="B124">
+        <v>10025</v>
+      </c>
+      <c r="C124">
+        <v>3000143</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>10007</v>
+      </c>
+      <c r="B125">
+        <v>10026</v>
+      </c>
+      <c r="C125">
+        <v>3000144</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>10008</v>
+      </c>
+      <c r="B126">
+        <v>10027</v>
+      </c>
+      <c r="C126">
+        <v>3000145</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>10009</v>
+      </c>
+      <c r="B127">
+        <v>10028</v>
+      </c>
+      <c r="C127">
+        <v>3000146</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10010</v>
+      </c>
+      <c r="B128">
+        <v>10029</v>
+      </c>
+      <c r="C128">
+        <v>3000147</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>10002</v>
+      </c>
+      <c r="B129">
+        <v>10021</v>
+      </c>
+      <c r="C129">
+        <v>3000148</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>10003</v>
+      </c>
+      <c r="B130">
+        <v>10022</v>
+      </c>
+      <c r="C130">
+        <v>3000149</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>10004</v>
+      </c>
+      <c r="B131">
+        <v>10023</v>
+      </c>
+      <c r="C131">
+        <v>3000150</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>10005</v>
+      </c>
+      <c r="B132">
+        <v>10024</v>
+      </c>
+      <c r="C132">
+        <v>3000151</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>10006</v>
+      </c>
+      <c r="B133">
+        <v>10025</v>
+      </c>
+      <c r="C133">
+        <v>3000152</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>10007</v>
+      </c>
+      <c r="B134">
+        <v>10026</v>
+      </c>
+      <c r="C134">
+        <v>3000153</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>10008</v>
+      </c>
+      <c r="B135">
+        <v>10027</v>
+      </c>
+      <c r="C135">
+        <v>3000154</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>10009</v>
+      </c>
+      <c r="B136">
+        <v>10028</v>
+      </c>
+      <c r="C136">
+        <v>3000155</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>10010</v>
+      </c>
+      <c r="B137">
+        <v>10029</v>
+      </c>
+      <c r="C137">
+        <v>3000156</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>10002</v>
+      </c>
+      <c r="B138">
+        <v>10021</v>
+      </c>
+      <c r="C138">
+        <v>3000157</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>10003</v>
+      </c>
+      <c r="B139">
+        <v>10022</v>
+      </c>
+      <c r="C139">
+        <v>3000158</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>10004</v>
+      </c>
+      <c r="B140">
+        <v>10023</v>
+      </c>
+      <c r="C140">
+        <v>3000159</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>10005</v>
+      </c>
+      <c r="B141">
+        <v>10024</v>
+      </c>
+      <c r="C141">
+        <v>3000160</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>10006</v>
+      </c>
+      <c r="B142">
+        <v>10025</v>
+      </c>
+      <c r="C142">
+        <v>3000161</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>10007</v>
+      </c>
+      <c r="B143">
+        <v>10026</v>
+      </c>
+      <c r="C143">
+        <v>3000162</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>10008</v>
+      </c>
+      <c r="B144">
+        <v>10027</v>
+      </c>
+      <c r="C144">
+        <v>3000163</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>10009</v>
+      </c>
+      <c r="B145">
+        <v>10028</v>
+      </c>
+      <c r="C145">
+        <v>3000164</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>10010</v>
+      </c>
+      <c r="B146">
+        <v>10029</v>
+      </c>
+      <c r="C146">
+        <v>3000165</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E31AD93-0728-4B57-AD7C-12DB1973815C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA8A647A-37C0-45CF-8974-040ED0EB5A03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="12">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>superadmin</t>
   </si>
 </sst>
 </file>
@@ -893,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4697,6 +4700,266 @@
         <v>10</v>
       </c>
     </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>10001</v>
+      </c>
+      <c r="B147">
+        <v>10030</v>
+      </c>
+      <c r="C147">
+        <v>3000166</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>10001</v>
+      </c>
+      <c r="B148">
+        <v>10030</v>
+      </c>
+      <c r="C148">
+        <v>3000167</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>10001</v>
+      </c>
+      <c r="B149">
+        <v>10030</v>
+      </c>
+      <c r="C149">
+        <v>3000168</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>10001</v>
+      </c>
+      <c r="B150">
+        <v>10030</v>
+      </c>
+      <c r="C150">
+        <v>3000169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>10001</v>
+      </c>
+      <c r="B151">
+        <v>10030</v>
+      </c>
+      <c r="C151">
+        <v>3000170</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>10001</v>
+      </c>
+      <c r="B152">
+        <v>10031</v>
+      </c>
+      <c r="C152">
+        <v>3000171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>10001</v>
+      </c>
+      <c r="B153">
+        <v>10031</v>
+      </c>
+      <c r="C153">
+        <v>3000172</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>10001</v>
+      </c>
+      <c r="B154">
+        <v>10031</v>
+      </c>
+      <c r="C154">
+        <v>3000173</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>10001</v>
+      </c>
+      <c r="B155">
+        <v>10031</v>
+      </c>
+      <c r="C155">
+        <v>3000174</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>10001</v>
+      </c>
+      <c r="B156">
+        <v>10031</v>
+      </c>
+      <c r="C156">
+        <v>3000175</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BA8A647A-37C0-45CF-8974-040ED0EB5A03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BC79875-D34B-459A-B7F2-EAB90B18781C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_machine_devic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="12">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4960,6 +4960,136 @@
         <v>10</v>
       </c>
     </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>10002</v>
+      </c>
+      <c r="B157">
+        <v>10032</v>
+      </c>
+      <c r="C157">
+        <v>3000176</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>10002</v>
+      </c>
+      <c r="B158">
+        <v>10032</v>
+      </c>
+      <c r="C158">
+        <v>3000177</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>10002</v>
+      </c>
+      <c r="B159">
+        <v>10032</v>
+      </c>
+      <c r="C159">
+        <v>3000178</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>10002</v>
+      </c>
+      <c r="B160">
+        <v>10032</v>
+      </c>
+      <c r="C160">
+        <v>3000179</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>10002</v>
+      </c>
+      <c r="B161">
+        <v>10032</v>
+      </c>
+      <c r="C161">
+        <v>3000180</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\MDB Change\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BC79875-D34B-459A-B7F2-EAB90B18781C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-reg_center_machine_devic" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="12">
   <si>
     <t>regcntr_id</t>
   </si>
@@ -53,11 +54,14 @@
   <si>
     <t>now()</t>
   </si>
+  <si>
+    <t>superadmin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -891,10 +895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3524,7 +3530,1568 @@
         <v>10</v>
       </c>
     </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>10002</v>
+      </c>
+      <c r="B102">
+        <v>10021</v>
+      </c>
+      <c r="C102">
+        <v>3000121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>10003</v>
+      </c>
+      <c r="B103">
+        <v>10022</v>
+      </c>
+      <c r="C103">
+        <v>3000122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>10004</v>
+      </c>
+      <c r="B104">
+        <v>10023</v>
+      </c>
+      <c r="C104">
+        <v>3000123</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>10005</v>
+      </c>
+      <c r="B105">
+        <v>10024</v>
+      </c>
+      <c r="C105">
+        <v>3000124</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>10006</v>
+      </c>
+      <c r="B106">
+        <v>10025</v>
+      </c>
+      <c r="C106">
+        <v>3000125</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>10007</v>
+      </c>
+      <c r="B107">
+        <v>10026</v>
+      </c>
+      <c r="C107">
+        <v>3000126</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>10008</v>
+      </c>
+      <c r="B108">
+        <v>10027</v>
+      </c>
+      <c r="C108">
+        <v>3000127</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>10009</v>
+      </c>
+      <c r="B109">
+        <v>10028</v>
+      </c>
+      <c r="C109">
+        <v>3000128</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>10010</v>
+      </c>
+      <c r="B110">
+        <v>10029</v>
+      </c>
+      <c r="C110">
+        <v>3000129</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10002</v>
+      </c>
+      <c r="B111">
+        <v>10021</v>
+      </c>
+      <c r="C111">
+        <v>3000130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>10003</v>
+      </c>
+      <c r="B112">
+        <v>10022</v>
+      </c>
+      <c r="C112">
+        <v>3000131</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>10004</v>
+      </c>
+      <c r="B113">
+        <v>10023</v>
+      </c>
+      <c r="C113">
+        <v>3000132</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>10005</v>
+      </c>
+      <c r="B114">
+        <v>10024</v>
+      </c>
+      <c r="C114">
+        <v>3000133</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>10006</v>
+      </c>
+      <c r="B115">
+        <v>10025</v>
+      </c>
+      <c r="C115">
+        <v>3000134</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>10007</v>
+      </c>
+      <c r="B116">
+        <v>10026</v>
+      </c>
+      <c r="C116">
+        <v>3000135</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>10008</v>
+      </c>
+      <c r="B117">
+        <v>10027</v>
+      </c>
+      <c r="C117">
+        <v>3000136</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>10009</v>
+      </c>
+      <c r="B118">
+        <v>10028</v>
+      </c>
+      <c r="C118">
+        <v>3000137</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>10010</v>
+      </c>
+      <c r="B119">
+        <v>10029</v>
+      </c>
+      <c r="C119">
+        <v>3000138</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>10002</v>
+      </c>
+      <c r="B120">
+        <v>10021</v>
+      </c>
+      <c r="C120">
+        <v>3000139</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>10003</v>
+      </c>
+      <c r="B121">
+        <v>10022</v>
+      </c>
+      <c r="C121">
+        <v>3000140</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>10004</v>
+      </c>
+      <c r="B122">
+        <v>10023</v>
+      </c>
+      <c r="C122">
+        <v>3000141</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>10005</v>
+      </c>
+      <c r="B123">
+        <v>10024</v>
+      </c>
+      <c r="C123">
+        <v>3000142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>10006</v>
+      </c>
+      <c r="B124">
+        <v>10025</v>
+      </c>
+      <c r="C124">
+        <v>3000143</v>
+      </c>
+      <c r="D124" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>10007</v>
+      </c>
+      <c r="B125">
+        <v>10026</v>
+      </c>
+      <c r="C125">
+        <v>3000144</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>10008</v>
+      </c>
+      <c r="B126">
+        <v>10027</v>
+      </c>
+      <c r="C126">
+        <v>3000145</v>
+      </c>
+      <c r="D126" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>10009</v>
+      </c>
+      <c r="B127">
+        <v>10028</v>
+      </c>
+      <c r="C127">
+        <v>3000146</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>10010</v>
+      </c>
+      <c r="B128">
+        <v>10029</v>
+      </c>
+      <c r="C128">
+        <v>3000147</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>10002</v>
+      </c>
+      <c r="B129">
+        <v>10021</v>
+      </c>
+      <c r="C129">
+        <v>3000148</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>10003</v>
+      </c>
+      <c r="B130">
+        <v>10022</v>
+      </c>
+      <c r="C130">
+        <v>3000149</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>10004</v>
+      </c>
+      <c r="B131">
+        <v>10023</v>
+      </c>
+      <c r="C131">
+        <v>3000150</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>10005</v>
+      </c>
+      <c r="B132">
+        <v>10024</v>
+      </c>
+      <c r="C132">
+        <v>3000151</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>10006</v>
+      </c>
+      <c r="B133">
+        <v>10025</v>
+      </c>
+      <c r="C133">
+        <v>3000152</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>10007</v>
+      </c>
+      <c r="B134">
+        <v>10026</v>
+      </c>
+      <c r="C134">
+        <v>3000153</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>10008</v>
+      </c>
+      <c r="B135">
+        <v>10027</v>
+      </c>
+      <c r="C135">
+        <v>3000154</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>10009</v>
+      </c>
+      <c r="B136">
+        <v>10028</v>
+      </c>
+      <c r="C136">
+        <v>3000155</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>10010</v>
+      </c>
+      <c r="B137">
+        <v>10029</v>
+      </c>
+      <c r="C137">
+        <v>3000156</v>
+      </c>
+      <c r="D137" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>10002</v>
+      </c>
+      <c r="B138">
+        <v>10021</v>
+      </c>
+      <c r="C138">
+        <v>3000157</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>10003</v>
+      </c>
+      <c r="B139">
+        <v>10022</v>
+      </c>
+      <c r="C139">
+        <v>3000158</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>10004</v>
+      </c>
+      <c r="B140">
+        <v>10023</v>
+      </c>
+      <c r="C140">
+        <v>3000159</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>10005</v>
+      </c>
+      <c r="B141">
+        <v>10024</v>
+      </c>
+      <c r="C141">
+        <v>3000160</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>10006</v>
+      </c>
+      <c r="B142">
+        <v>10025</v>
+      </c>
+      <c r="C142">
+        <v>3000161</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>10007</v>
+      </c>
+      <c r="B143">
+        <v>10026</v>
+      </c>
+      <c r="C143">
+        <v>3000162</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>10008</v>
+      </c>
+      <c r="B144">
+        <v>10027</v>
+      </c>
+      <c r="C144">
+        <v>3000163</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>10009</v>
+      </c>
+      <c r="B145">
+        <v>10028</v>
+      </c>
+      <c r="C145">
+        <v>3000164</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>10010</v>
+      </c>
+      <c r="B146">
+        <v>10029</v>
+      </c>
+      <c r="C146">
+        <v>3000165</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>10001</v>
+      </c>
+      <c r="B147">
+        <v>10030</v>
+      </c>
+      <c r="C147">
+        <v>3000166</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>10001</v>
+      </c>
+      <c r="B148">
+        <v>10030</v>
+      </c>
+      <c r="C148">
+        <v>3000167</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>10001</v>
+      </c>
+      <c r="B149">
+        <v>10030</v>
+      </c>
+      <c r="C149">
+        <v>3000168</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>10001</v>
+      </c>
+      <c r="B150">
+        <v>10030</v>
+      </c>
+      <c r="C150">
+        <v>3000169</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>10001</v>
+      </c>
+      <c r="B151">
+        <v>10030</v>
+      </c>
+      <c r="C151">
+        <v>3000170</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>10001</v>
+      </c>
+      <c r="B152">
+        <v>10031</v>
+      </c>
+      <c r="C152">
+        <v>3000171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>10001</v>
+      </c>
+      <c r="B153">
+        <v>10031</v>
+      </c>
+      <c r="C153">
+        <v>3000172</v>
+      </c>
+      <c r="D153" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>10001</v>
+      </c>
+      <c r="B154">
+        <v>10031</v>
+      </c>
+      <c r="C154">
+        <v>3000173</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>10001</v>
+      </c>
+      <c r="B155">
+        <v>10031</v>
+      </c>
+      <c r="C155">
+        <v>3000174</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>10001</v>
+      </c>
+      <c r="B156">
+        <v>10031</v>
+      </c>
+      <c r="C156">
+        <v>3000175</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>10002</v>
+      </c>
+      <c r="B157">
+        <v>10032</v>
+      </c>
+      <c r="C157">
+        <v>3000176</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>10002</v>
+      </c>
+      <c r="B158">
+        <v>10032</v>
+      </c>
+      <c r="C158">
+        <v>3000177</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>10002</v>
+      </c>
+      <c r="B159">
+        <v>10032</v>
+      </c>
+      <c r="C159">
+        <v>3000178</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>10002</v>
+      </c>
+      <c r="B160">
+        <v>10032</v>
+      </c>
+      <c r="C160">
+        <v>3000179</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>10002</v>
+      </c>
+      <c r="B161">
+        <v>10032</v>
+      </c>
+      <c r="C161">
+        <v>3000180</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-reg_center_machine_device_h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BC79875-D34B-459A-B7F2-EAB90B18781C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5C3C25ED-3107-4503-8684-61A0F994DFC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,7 +958,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B3">
         <v>10002</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B23">
         <v>10002</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B43">
         <v>10002</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B63">
         <v>10002</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B83">
         <v>10002</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B105">
         <v>10024</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B114">
         <v>10024</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B123">
         <v>10024</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B132">
         <v>10024</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B141">
         <v>10024</v>
